--- a/JS-Frameworks-Self-Evaluation-Protocol-anto84.xlsx
+++ b/JS-Frameworks-Self-Evaluation-Protocol-anto84.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>JS-SPA-Self-Evaluation-Protocol</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Antoan Tonev</t>
   </si>
   <si>
     <t>GitHub (up to 100)</t>
@@ -719,8 +716,8 @@
   <sheetPr/>
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -767,14 +764,14 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="18.75" spans="2:5">
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -782,41 +779,41 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="9">
         <v>18</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9">
         <v>23</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" ht="18.75" spans="2:5">
       <c r="B10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -824,7 +821,7 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="13">
         <v>10</v>
@@ -836,7 +833,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="13">
         <v>15</v>
@@ -848,7 +845,7 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13">
         <v>5</v>
@@ -860,7 +857,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="13">
         <v>10</v>
@@ -872,7 +869,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -882,7 +879,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13">
@@ -892,7 +889,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13">
@@ -902,7 +899,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13">
@@ -912,7 +909,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
@@ -922,7 +919,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13">
@@ -932,7 +929,7 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
@@ -942,7 +939,7 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="13">
         <v>5</v>
@@ -954,7 +951,7 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -964,7 +961,7 @@
     </row>
     <row r="24" ht="18.75" spans="2:5">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -972,7 +969,7 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18">
@@ -982,7 +979,7 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18">
@@ -992,7 +989,7 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -1000,7 +997,7 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18">
@@ -1010,7 +1007,7 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18">
@@ -1020,7 +1017,7 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18">
@@ -1030,7 +1027,7 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18">
@@ -1040,7 +1037,7 @@
     </row>
     <row r="32" ht="18.75" spans="2:5">
       <c r="B32" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="21">
         <f>SUM(C6:C31)</f>
